--- a/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPMI_Research_on_Parkinsons\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8995771A-419A-4F75-9305-28EC1BCC8C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835ADFF2-3077-4C6F-AE4E-AE1C00B4D10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="21600" windowHeight="16200" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
   </bookViews>
   <sheets>
     <sheet name="numerical_pairwise_p_values_vis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -644,7 +657,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -988,7 +1021,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F24" activeCellId="2" sqref="F4 F21 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,8 +1609,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.005</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28306"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPMI_Research_on_Parkinsons\src\mahbub\pair_wise_p_values_Ttest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835ADFF2-3077-4C6F-AE4E-AE1C00B4D10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086C441-E2D8-48A0-AC50-7136BBAFDFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
+    <workbookView xWindow="2760" yWindow="0" windowWidth="21600" windowHeight="16200" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
   </bookViews>
   <sheets>
     <sheet name="numerical_pairwise_p_values_vis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1021,7 +1008,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" activeCellId="2" sqref="F4 F21 F24"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1596,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0.005</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086C441-E2D8-48A0-AC50-7136BBAFDFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4498C-0E81-46C2-AFBF-93AB3EA504A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="0" windowWidth="21600" windowHeight="16200" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
   </bookViews>
   <sheets>
     <sheet name="numerical_pairwise_p_values_vis" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1008,7 +1028,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,9 +1617,12 @@
   </sheetData>
   <conditionalFormatting sqref="B2:G25">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_visits.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4498C-0E81-46C2-AFBF-93AB3EA504A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E4EA87-EB45-4543-9DA5-8F690D87B2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{044F91BD-0E8C-4A38-9826-72DCF633B14D}"/>
   </bookViews>
   <sheets>
     <sheet name="numerical_pairwise_p_values_vis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -119,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +267,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +453,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -596,9 +628,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -644,37 +678,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1025,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3641838F-8988-43C1-80CC-BF33D6F7BECF}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1067,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -1086,7 +1090,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
@@ -1109,7 +1113,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
@@ -1132,7 +1136,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
@@ -1155,7 +1159,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
@@ -1178,7 +1182,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
@@ -1201,7 +1205,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
@@ -1224,7 +1228,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
@@ -1247,7 +1251,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="1">
@@ -1270,7 +1274,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1">
@@ -1293,7 +1297,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1">
@@ -1316,7 +1320,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
@@ -1339,7 +1343,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1">
@@ -1362,7 +1366,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1">
@@ -1385,7 +1389,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1">
@@ -1408,7 +1412,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="1">
@@ -1431,7 +1435,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1">
@@ -1454,7 +1458,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
@@ -1477,7 +1481,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1">
@@ -1500,7 +1504,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1">
@@ -1523,7 +1527,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1">
@@ -1546,7 +1550,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1">
@@ -1569,61 +1573,84 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="3">
+        <f t="shared" ref="B24:G24" si="0">(COUNTIF(B2:B23,"&lt;0.05")/COUNTA(B2:B23))*100</f>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B28" s="1">
         <v>0.95221397002784103</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C28" s="1">
         <v>0.130713438584972</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D28" s="1">
         <v>2.3384079239967898E-2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E28" s="1">
         <v>0.14246894971486501</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F28" s="1">
         <v>2.5901271507482001E-2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G28" s="1">
         <v>0.42460020716048402</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B29" s="1">
         <v>0.65306648829800196</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C29" s="1">
         <v>0.20343253239339501</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D29" s="1">
         <v>0.75509798401452</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E29" s="1">
         <v>0.450127976394811</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F29" s="1">
         <v>0.89906482971951895</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G29" s="1">
         <v>0.37804484700532298</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G25">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="B2:G23 B28:G29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0.005</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
